--- a/files/Relatorio - Abril de 2023.xlsx
+++ b/files/Relatorio - Abril de 2023.xlsx
@@ -1211,8 +1211,8 @@
         <v>6</v>
       </c>
       <c r="B40" s="16" t="str">
-        <f>SUMIF(B3, "=Saldo Anterior", D3)</f>
-        <v>=SUMIF(B3, "=Saldo Anterior", D3)</v>
+        <f>VLOOKUP("Saldo Anterior", B:D, 3, 0)</f>
+        <v>=VLOOKUP("Saldo Anterior", B:D, 3, 0)</v>
       </c>
     </row>
     <row r="41" spans="1:4" customHeight="1" ht="20">

--- a/files/Relatorio - Abril de 2023.xlsx
+++ b/files/Relatorio - Abril de 2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Relatório AD. Videira Verdadeira</t>
   </si>
@@ -65,12 +65,12 @@
     <t>09/04/2023</t>
   </si>
   <si>
+    <t>Ajuda Beneficente + Material Ceia</t>
+  </si>
+  <si>
     <t>Dízimos</t>
   </si>
   <si>
-    <t>Ajuda Beneficente + Material Ceia</t>
-  </si>
-  <si>
     <t>11/04/2023</t>
   </si>
   <si>
@@ -98,12 +98,12 @@
     <t>18/04/2023</t>
   </si>
   <si>
+    <t>Ajuda de Custo</t>
+  </si>
+  <si>
     <t>Azeite Campanha</t>
   </si>
   <si>
-    <t>Ajuda de Custo</t>
-  </si>
-  <si>
     <t>19/04/2023</t>
   </si>
   <si>
@@ -122,16 +122,10 @@
     <t>24/04/2023</t>
   </si>
   <si>
+    <t>Luz</t>
+  </si>
+  <si>
     <t>Água</t>
-  </si>
-  <si>
-    <t>Luz</t>
-  </si>
-  <si>
-    <t>25/04/2023</t>
-  </si>
-  <si>
-    <t>Material Papelaria</t>
   </si>
   <si>
     <t>26/04/2023</t>
@@ -680,10 +674,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -794,10 +788,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="14">
-        <v>250.0</v>
+        <v>78.42</v>
       </c>
     </row>
     <row r="9" spans="1:4" customHeight="1" ht="20">
@@ -805,13 +799,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="14">
-        <v>78.42</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" customHeight="1" ht="20">
@@ -819,13 +813,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="14">
-        <v>14.5</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="11" spans="1:4" customHeight="1" ht="20">
@@ -847,13 +841,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="14">
-        <v>200.0</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="20">
@@ -861,13 +855,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="14">
-        <v>49.6</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="14" spans="1:4" customHeight="1" ht="20">
@@ -875,13 +869,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="14">
-        <v>200.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15" spans="1:4" customHeight="1" ht="20">
@@ -889,13 +883,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="14">
-        <v>485.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="16" spans="1:4" customHeight="1" ht="20">
@@ -903,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="14">
-        <v>10.0</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="17" spans="1:4" customHeight="1" ht="20">
@@ -979,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="14">
-        <v>42.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="22" spans="1:4" customHeight="1" ht="20">
@@ -993,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="14">
-        <v>100.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="23" spans="1:4" customHeight="1" ht="20">
@@ -1001,13 +995,13 @@
         <v>29</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="14">
-        <v>64.75</v>
+        <v>245.56</v>
       </c>
     </row>
     <row r="24" spans="1:4" customHeight="1" ht="20">
@@ -1015,13 +1009,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="14">
-        <v>245.56</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="25" spans="1:4" customHeight="1" ht="20">
@@ -1077,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="14">
-        <v>67.38</v>
+        <v>195.49</v>
       </c>
     </row>
     <row r="29" spans="1:4" customHeight="1" ht="20">
@@ -1091,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="14">
-        <v>195.49</v>
+        <v>67.38</v>
       </c>
     </row>
     <row r="30" spans="1:4" customHeight="1" ht="20">
@@ -1099,41 +1093,41 @@
         <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30" s="14">
-        <v>72.8</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="31" spans="1:4" customHeight="1" ht="20">
       <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D31" s="14">
-        <v>18.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="32" spans="1:4" customHeight="1" ht="20">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D32" s="14">
-        <v>150.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="33" spans="1:4" customHeight="1" ht="20">
@@ -1141,105 +1135,91 @@
         <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="14">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="34" spans="1:4" customHeight="1" ht="20">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D34" s="14">
-        <v>29.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="35" spans="1:4" customHeight="1" ht="20">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D35" s="14">
-        <v>280.0</v>
+        <v>74.15</v>
       </c>
     </row>
     <row r="36" spans="1:4" customHeight="1" ht="20">
-      <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="14">
-        <v>750.0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" customHeight="1" ht="20">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="13">
-        <v>74.15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" customHeight="1" ht="20">
-      <c r="A40" s="8" t="s">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="13">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customHeight="1" ht="20">
+      <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="16" t="str">
+      <c r="B39" s="16" t="str">
         <f>VLOOKUP("Saldo Anterior", B:D, 3, 0)</f>
         <v>=VLOOKUP("Saldo Anterior", B:D, 3, 0)</v>
       </c>
     </row>
+    <row r="40" spans="1:4" customHeight="1" ht="20">
+      <c r="A40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="17" t="str">
+        <f>(SUMIF(C:C, "=Entrada", D:D) -B39)</f>
+        <v>=(SUMIF(C:C, "=Entrada", D:D) -B39)</v>
+      </c>
+    </row>
     <row r="41" spans="1:4" customHeight="1" ht="20">
-      <c r="A41" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="17" t="str">
-        <f>(SUMIF(C:C, "=Entrada", D:D) -B40)</f>
-        <v>=(SUMIF(C:C, "=Entrada", D:D) -B40)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" customHeight="1" ht="20">
-      <c r="A42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="18" t="str">
+      <c r="A41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="18" t="str">
         <f>SUMIF(C:C, "&lt;&gt;Entrada", D:D)</f>
         <v>=SUMIF(C:C, "&lt;&gt;Entrada", D:D)</v>
       </c>
     </row>
-    <row r="43" spans="1:4" customHeight="1" ht="20">
-      <c r="A43" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="19" t="str">
-        <f>SUM(B40,B41,-B42)</f>
-        <v>=SUM(B40,B41,-B42)</v>
+    <row r="42" spans="1:4" customHeight="1" ht="20">
+      <c r="A42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="19" t="str">
+        <f>SUM(B39,B40,-B41)</f>
+        <v>=SUM(B39,B40,-B41)</v>
       </c>
     </row>
   </sheetData>
